--- a/data/case1/5/Q1_5.xlsx
+++ b/data/case1/5/Q1_5.xlsx
@@ -56,172 +56,172 @@
   <dimension ref="A1:A33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.26156967784687879</v>
+        <v>0.28905232522894408</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999591084929</v>
+        <v>-0.0059999999376216806</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.054768334938067653</v>
+        <v>-0.0039999999358961702</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999323234761</v>
+        <v>-0.0079999998913198311</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999613998796</v>
+        <v>-0.0029999999342180672</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999608106833</v>
+        <v>-0.0083612829731407601</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999999087465596</v>
+        <v>-0.0099999998498985221</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999999077562407</v>
+        <v>-0.0099999998484388009</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999586852724</v>
+        <v>-0.0019999999255730927</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.026417740880029683</v>
+        <v>-0.0019999999253901279</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999515375464</v>
+        <v>0.026661300737693239</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999473974697</v>
+        <v>-0.0034999999093909828</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.00349999994374528</v>
+        <v>-0.0034999999029627915</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999137090327</v>
+        <v>-0.0079999998575388531</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999995804367359</v>
+        <v>-0.00099999992460997333</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999509265898</v>
+        <v>-0.0019999999139002078</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.001999999949957143</v>
+        <v>-0.0019999999124884482</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.003999999936816323</v>
+        <v>-0.0039999998927822134</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999711972656</v>
+        <v>-0.050750398993583357</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.037508658881904466</v>
+        <v>-0.0039999999521107554</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999633462124</v>
+        <v>-0.003999999951610711</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999631135097</v>
+        <v>-0.0039999999514481743</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999518579585</v>
+        <v>-0.068032308087198068</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.036647313120980129</v>
+        <v>-0.019999999765738075</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999847770233</v>
+        <v>-0.019999999762687182</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.002499999956627974</v>
+        <v>-0.0024999999218877633</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999553130259</v>
+        <v>-0.002499999919317375</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999532336332</v>
+        <v>-0.001999999911690864</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999999173848693</v>
+        <v>-0.0069999998542611408</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999575009788</v>
+        <v>-0.025133293149751879</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999183600892</v>
+        <v>-0.0069999998455969603</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.009999999900156098</v>
+        <v>-0.0099999998157631609</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.043521848904214622</v>
+        <v>-0.0039999998740185561</v>
       </c>
     </row>
   </sheetData>
